--- a/results/mono.xlsx
+++ b/results/mono.xlsx
@@ -38,7 +38,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
+        <fgColor rgb="00FFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>indigenous people</t>
+          <t>Jews</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -538,99 +538,97 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>all</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>61.84</v>
-      </c>
+          <t>indigenous people</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" s="2" t="n">
-        <v>73.66</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" s="2" t="n">
-        <v>55.56</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" s="2" t="n">
-        <v>82.14</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>jews</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>61.84</v>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" s="2" t="n">
-        <v>83.75999999999999</v>
+        <v>73.66</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" s="2" t="n">
+        <v>55.56</v>
+      </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" s="2" t="n">
+        <v>82.14</v>
+      </c>
       <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>gay people</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>77.59</v>
-      </c>
+          <t>jews</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" s="2" t="n">
-        <v>68.95</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" s="2" t="n">
-        <v>68.66</v>
+        <v>83.75999999999999</v>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" s="2" t="n">
-        <v>61.15</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" s="2" t="n">
-        <v>73.68000000000001</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>86.76000000000001</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>asian people</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>gay people</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>77.59</v>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="D7" s="2" t="n">
+        <v>68.95</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>68.66</v>
+      </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" s="2" t="n">
-        <v>85.33</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="G7" s="2" t="n">
+        <v>61.15</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" s="2" t="n">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>86.76000000000001</v>
+      </c>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>immigrant</t>
+          <t>asian people</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -640,7 +638,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" s="2" t="n">
-        <v>65.31999999999999</v>
+        <v>85.33</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -649,53 +647,53 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>women</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>68.84999999999999</v>
-      </c>
+          <t>immigrant</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" s="2" t="n">
-        <v>68.31999999999999</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" s="2" t="n">
-        <v>65.45999999999999</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>56.37</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>75.48</v>
-      </c>
+        <v>65.31999999999999</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Muslims</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
+          <t>women</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>68.84999999999999</v>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" s="2" t="n">
+        <v>68.31999999999999</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="H10" s="2" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>56.37</v>
+      </c>
       <c r="J10" s="2" t="n">
-        <v>87.91</v>
+        <v>75.48</v>
       </c>
       <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>immigrants</t>
+          <t>Muslims</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -704,19 +702,17 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" s="2" t="n">
-        <v>72.8</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" s="2" t="n">
-        <v>77.75</v>
-      </c>
+      <c r="J11" s="2" t="n">
+        <v>87.91</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>foreigners</t>
+          <t>immigrants</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -725,17 +721,19 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" s="2" t="n">
+        <v>72.8</v>
+      </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" s="2" t="n">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" s="2" t="n">
+        <v>77.75</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>jewish people</t>
+          <t>foreigners</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -744,89 +742,108 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" s="2" t="n">
-        <v>88.91</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" s="2" t="n">
+        <v>91.59999999999999</v>
+      </c>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>disabled people</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>78.62</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>62.85</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>80.81</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>81.81999999999999</v>
-      </c>
+          <t>jewish people</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" s="2" t="n">
-        <v>74.11</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>82.31</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>65.95999999999999</v>
-      </c>
+      <c r="H14" s="2" t="n">
+        <v>88.91</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>refugees</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+          <t>disabled people</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>62.85</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>80.81</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>81.81999999999999</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" s="2" t="n">
+        <v>74.11</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>82.31</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>65.95999999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>refugees</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>trans people</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B17" s="2" t="n">
         <v>76.5</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="2" t="n">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="2" t="n">
         <v>80.55</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E17" s="2" t="n">
         <v>78.62</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" s="2" t="n">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" s="2" t="n">
         <v>57.12</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H17" s="2" t="n">
         <v>85.06</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" s="2" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" s="2" t="n">
         <v>86.45999999999999</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
